--- a/biology/Médecine/Serge_Hercberg/Serge_Hercberg.xlsx
+++ b/biology/Médecine/Serge_Hercberg/Serge_Hercberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Serge Hercberg, né le 24 septembre 1951[1] à Paris, est un épidémiologiste et nutritionniste français, professeur à l'université Sorbonne Paris Nord (ex Paris 13), spécialiste de la nutrition en santé publique. Il a lancé l'étude SU.VI.MAX, la cohorte NutriNet-Santé et a présidé le Programme national nutrition santé (PNNS) de 2001 à 2017.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Hercberg, né le 24 septembre 1951 à Paris, est un épidémiologiste et nutritionniste français, professeur à l'université Sorbonne Paris Nord (ex Paris 13), spécialiste de la nutrition en santé publique. Il a lancé l'étude SU.VI.MAX, la cohorte NutriNet-Santé et a présidé le Programme national nutrition santé (PNNS) de 2001 à 2017.
 </t>
         </is>
       </c>
@@ -513,13 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines et formation
-Serge Hercberg est issu d'une famille d'émigrés juifs polonais, et déclare avoir désiré devenir médecin depuis l'enfance[2].
-Il est docteur en médecine de l'université Pierre-et-Marie-Curie (UPMC) en 1979. Son « mentor », le pédiatre et professeur de nutrition Henri Dupin, l'incite à poursuivre dans la recherche en médecine[2]. Il devient ainsi docteur d'État ès sciences de l'université Paris-Diderot (Paris VII) en 1986. Il a effectué son post-doctorat au Kansas University Medical Center[3] (États-Unis).
-Parcours professionnel
-Serge Hercberg a été  chercheur à l’Institut scientifique et technique de la nutrition et de l'alimentation (CNAM), puis chercheur INSERM de 1988 à 2005 et PU-PH, professeur de nutrition - praticien hospitalier à l'université Sorbonne Paris Nord (ex Paris 13)/ département de santé publique de l'hôpital Avicenne (Bobigny), AP-HP. Il a dirigé l'unité 557 de  l'INSERM devenue l’équipe de recherche en épidémiologie nutritionnelle, EREN, unité 1153 de l’INSERM (UMR Inserm/Inra/Cnam/ Université Sorbonne Paris Nord).
-Il a été investigateur principal des études Val-de-Marne 1988, Min.Vit.Aox, SU.VI.MAX à partir de 1994[4], et NutriNet-Santé depuis 2009.
-Il est membre du Haut Conseil de la santé publique depuis 2007, et a été président du Programme national nutrition santé (PNNS) lancé par le Ministère de la Santé de 2001 à 2018.
+          <t>Origines et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Hercberg est issu d'une famille d'émigrés juifs polonais, et déclare avoir désiré devenir médecin depuis l'enfance.
+Il est docteur en médecine de l'université Pierre-et-Marie-Curie (UPMC) en 1979. Son « mentor », le pédiatre et professeur de nutrition Henri Dupin, l'incite à poursuivre dans la recherche en médecine. Il devient ainsi docteur d'État ès sciences de l'université Paris-Diderot (Paris VII) en 1986. Il a effectué son post-doctorat au Kansas University Medical Center (États-Unis).
 </t>
         </is>
       </c>
@@ -545,14 +558,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serge Hercberg a obtenu le prix Recherche de l’Institut français pour la nutrition en 1997[5]. Il a été fait Docteur Honoris Causa de l'Université de Gembloux (Belgique) en 2009. Il a reçu le Prix Daniel Hermann de l'Institut de France (Académie des Sciences) en 2014.
-Il fait partie du top 1 % des chercheurs les plus cités dans le monde en 2018, 2019, 2020 et 2021 sur l'agrégateur de contenus scientifiques Web of Science.
-Il a reçu en 2023, le prix du journal indépendant "Prescrire" pour son livre "Mange et tais-toi: un nutritionniste face au lobby agro-alimentaire).
+          <t>Parcours professionnel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Hercberg a été  chercheur à l’Institut scientifique et technique de la nutrition et de l'alimentation (CNAM), puis chercheur INSERM de 1988 à 2005 et PU-PH, professeur de nutrition - praticien hospitalier à l'université Sorbonne Paris Nord (ex Paris 13)/ département de santé publique de l'hôpital Avicenne (Bobigny), AP-HP. Il a dirigé l'unité 557 de  l'INSERM devenue l’équipe de recherche en épidémiologie nutritionnelle, EREN, unité 1153 de l’INSERM (UMR Inserm/Inra/Cnam/ Université Sorbonne Paris Nord).
+Il a été investigateur principal des études Val-de-Marne 1988, Min.Vit.Aox, SU.VI.MAX à partir de 1994, et NutriNet-Santé depuis 2009.
+Il est membre du Haut Conseil de la santé publique depuis 2007, et a été président du Programme national nutrition santé (PNNS) lancé par le Ministère de la Santé de 2001 à 2018.
 </t>
         </is>
       </c>
@@ -578,13 +597,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nutri-score</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses travaux ont inspiré le système d'étiquetage Nutri-score[6], d'abord combattu par l'industrie agroalimentaire, signalant la qualité nutritionnelle des produits, qui est testé à partir de septembre 2016[7],[8]. Il a été interviewé en septembre 2016 dans le cadre du magazine télévisé Cash Investigation à propos de ce logo nutritionnel 5-C, contesté par le lobby agroalimentaire[9],[10]. Ce système d'étiquetage est repris par le wiki alimentaire Open Food Facts depuis 2014[11].
-Adopté en mars 2017, l'affichage du Nutri-score est désormais recommandé aux fabricants par le gouvernement français[12] – le règlement européen 1169/2011 ne permettant pas d'imposer un système d'étiquetage nutritionnel[13]. Il est utilisé par Auchan, Fleury Michon, Intermarché et E.Leclerc (uniquement sur son site pour ce dernier)[14]. Les fabricants Coca-Cola, Nestlé, Mars, Mondelez, Pepsico et Unilever ont quant à eux initialement refusé d'appliquer ce système[14].
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Hercberg a obtenu le prix Recherche de l’Institut français pour la nutrition en 1997. Il a été fait Docteur Honoris Causa de l'Université de Gembloux (Belgique) en 2009. Il a reçu le Prix Daniel Hermann de l'Institut de France (Académie des Sciences) en 2014.
+Il fait partie du top 1 % des chercheurs les plus cités dans le monde en 2018, 2019, 2020 et 2021 sur l'agrégateur de contenus scientifiques Web of Science.
+Il a reçu en 2023, le prix du journal indépendant "Prescrire" pour son livre "Mange et tais-toi: un nutritionniste face au lobby agro-alimentaire).
 </t>
         </is>
       </c>
@@ -610,14 +632,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Prises de position</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se situe politiquement à gauche, mais il se tient volontairement éloigné de la vie partisane[2]. Du reste, le directeur général de Santé Publique France, François Bourdillon, le présente avant tout comme « un homme de santé publique, qui a imaginé et porté trois PNNS, sous des gouvernements de droite et de gauche »[2].
-Depuis la fin des années 2000, il refuse les financements du secteur privé pour ses recherches, arguant que « Aujourd'hui, la crédibilité des études scientifiques, quel que soit le domaine, ne permet pas d'avoir des financements privés »[2].
-À propos de la taxe soda entrée en vigueur en 2012, il considère qu'elle permet « d'orienter les consommateurs vers des aliments plus intéressants sur le point de vue nutritionnel »[15].
+          <t>Nutri-score</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses travaux ont inspiré le système d'étiquetage Nutri-score, d'abord combattu par l'industrie agroalimentaire, signalant la qualité nutritionnelle des produits, qui est testé à partir de septembre 2016,. Il a été interviewé en septembre 2016 dans le cadre du magazine télévisé Cash Investigation à propos de ce logo nutritionnel 5-C, contesté par le lobby agroalimentaire,. Ce système d'étiquetage est repris par le wiki alimentaire Open Food Facts depuis 2014.
+Adopté en mars 2017, l'affichage du Nutri-score est désormais recommandé aux fabricants par le gouvernement français – le règlement européen 1169/2011 ne permettant pas d'imposer un système d'étiquetage nutritionnel. Il est utilisé par Auchan, Fleury Michon, Intermarché et E.Leclerc (uniquement sur son site pour ce dernier). Les fabricants Coca-Cola, Nestlé, Mars, Mondelez, Pepsico et Unilever ont quant à eux initialement refusé d'appliquer ce système.
 </t>
         </is>
       </c>
@@ -643,16 +666,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Prises de position</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se situe politiquement à gauche, mais il se tient volontairement éloigné de la vie partisane. Du reste, le directeur général de Santé Publique France, François Bourdillon, le présente avant tout comme « un homme de santé publique, qui a imaginé et porté trois PNNS, sous des gouvernements de droite et de gauche ».
+Depuis la fin des années 2000, il refuse les financements du secteur privé pour ses recherches, arguant que « Aujourd'hui, la crédibilité des études scientifiques, quel que soit le domaine, ne permet pas d'avoir des financements privés ».
+À propos de la taxe soda entrée en vigueur en 2012, il considère qu'elle permet « d'orienter les consommateurs vers des aliments plus intéressants sur le point de vue nutritionnel ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Serge_Hercberg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serge_Hercberg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Aspects actuels des carences en fer et en folates dans le monde, Editions de l'Institut national de la sante, 1990.
 Réflexions sur le système d’information nutritionnelle coloriel 5-C, revue Les Tribunes de la santé 2015/4 (n° 49).
 Pour une politique nutritionnelle à la hauteur des enjeux de Santé Publique !, Santé Publique 2014/3 (Vol. 26).
-La nutrition : des constats aux politiques, dossier coordonné par Serge Hercberg, 2014, La Documentation française[16].
-Mange et tais-toi. Un nutritionniste face au lobby agroalimentaire, 2022, éditions HumenSciences[17].</t>
+La nutrition : des constats aux politiques, dossier coordonné par Serge Hercberg, 2014, La Documentation française.
+Mange et tais-toi. Un nutritionniste face au lobby agroalimentaire, 2022, éditions HumenSciences.</t>
         </is>
       </c>
     </row>
